--- a/WorkLogFlorian.xlsx
+++ b/WorkLogFlorian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340F8262-8BEC-40DF-9675-4C3AE813B92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C7A1EE-34DB-44DE-AC13-7D464D5C6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Flo</t>
   </si>
@@ -36,13 +36,22 @@
     <t>Project setup</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Time(h)</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Score on Window</t>
+  </si>
+  <si>
+    <t>Direction Light</t>
   </si>
 </sst>
 </file>
@@ -78,10 +87,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -362,17 +372,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L3"/>
+  <dimension ref="B1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
@@ -389,24 +400,70 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
         <v>45677</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.875</v>
       </c>
       <c r="H3" s="2"/>
       <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45678</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.70833333333333337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkLogFlorian.xlsx
+++ b/WorkLogFlorian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C7A1EE-34DB-44DE-AC13-7D464D5C6943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EC7A5-BDA9-4566-9FD9-983C23B6ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Flo</t>
   </si>
@@ -51,7 +51,10 @@
     <t>Score on Window</t>
   </si>
   <si>
-    <t>Direction Light</t>
+    <t>Highscore after game</t>
+  </si>
+  <si>
+    <t>Directional Light</t>
   </si>
 </sst>
 </file>
@@ -372,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L5"/>
+  <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -465,6 +468,17 @@
         <v>0.70833333333333337</v>
       </c>
     </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogFlorian.xlsx
+++ b/WorkLogFlorian.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0EC7A5-BDA9-4566-9FD9-983C23B6ED84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344C12C-B0CB-4921-87F7-E40068C6B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
   <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,11 +472,17 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
       <c r="D6" s="2">
         <v>45679</v>
       </c>
       <c r="E6" s="3">
         <v>0.75</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.83333333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLogFlorian.xlsx
+++ b/WorkLogFlorian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344C12C-B0CB-4921-87F7-E40068C6B81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A179A7D-4911-4197-8FE0-FDB31BA0D1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36000" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="B1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>45679</v>
@@ -482,7 +482,7 @@
         <v>0.75</v>
       </c>
       <c r="F6" s="3">
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLogFlorian.xlsx
+++ b/WorkLogFlorian.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A179A7D-4911-4197-8FE0-FDB31BA0D1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFADD654-BB4A-4D12-87D5-627DD19021C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="690" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="1650" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Flo</t>
   </si>
@@ -55,6 +66,12 @@
   </si>
   <si>
     <t>Directional Light</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Time ges:</t>
   </si>
 </sst>
 </file>
@@ -375,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L6"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +405,7 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
@@ -414,6 +432,13 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <f>SUM(C:C)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -483,6 +508,23 @@
       </c>
       <c r="F6" s="3">
         <v>0.875</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45679</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLogFlorian.xlsx
+++ b/WorkLogFlorian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFADD654-BB4A-4D12-87D5-627DD19021C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01373B4-7E7A-4DA4-A26D-C0DA73A52EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="1650" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Flo</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Time ges:</t>
+  </si>
+  <si>
+    <t>Normal Map Background</t>
   </si>
 </sst>
 </file>
@@ -392,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L7"/>
+  <dimension ref="B1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -437,7 +440,7 @@
       </c>
       <c r="J2">
         <f>SUM(C:C)</f>
-        <v>11</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -525,6 +528,23 @@
       </c>
       <c r="F7" s="3">
         <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>

--- a/WorkLogFlorian.xlsx
+++ b/WorkLogFlorian.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH\GitRepo\FH_BIF5_CGRMR_OpenGL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01373B4-7E7A-4DA4-A26D-C0DA73A52EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FBFCE2-A6D0-41C9-A88A-A2647E2D6FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4785" yWindow="1650" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Flo</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Normal Map Background</t>
+  </si>
+  <si>
+    <t>Code Cleanup</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L8"/>
+  <dimension ref="B1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +443,7 @@
       </c>
       <c r="J2">
         <f>SUM(C:C)</f>
-        <v>13.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -545,6 +548,23 @@
       </c>
       <c r="F8" s="3">
         <v>0.8125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45680</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
